--- a/inst/extdata/S1P_metadata_tables.xlsx
+++ b/inst/extdata/S1P_metadata_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsibjb/Documents/Code/midar/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6027616-53B4-5144-98A8-622716AE0AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7433C8-43B0-0E47-8E60-69A12643252B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9580" yWindow="12600" windowWidth="42840" windowHeight="17440" activeTab="1" xr2:uid="{7A04E2C8-868F-5640-98CB-88D372530A12}"/>
   </bookViews>
@@ -3794,7 +3794,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:J17"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/inst/extdata/S1P_metadata_tables.xlsx
+++ b/inst/extdata/S1P_metadata_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsibjb/Documents/Code/midar/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7433C8-43B0-0E47-8E60-69A12643252B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE085AD-D11C-464F-9AB0-8EFFF470E995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9580" yWindow="12600" windowWidth="42840" windowHeight="17440" activeTab="1" xr2:uid="{7A04E2C8-868F-5640-98CB-88D372530A12}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="185">
   <si>
     <t>analysis_id</t>
   </si>
@@ -596,6 +596,9 @@
   </si>
   <si>
     <t>interference_contribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1P d18:1 13C2D2 </t>
   </si>
 </sst>
 </file>
@@ -3794,7 +3797,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3951,7 +3954,7 @@
         <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -4147,7 +4150,7 @@
         <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="F14">
         <v>1</v>
